--- a/DUOL.xlsx
+++ b/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA31B5F-4C50-4609-A4B3-45A41B3053BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02FDB9-A0F6-4FEA-A28E-D16E124956A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21990" yWindow="1275" windowWidth="19590" windowHeight="15345" activeTab="1" xr2:uid="{C0AECCA3-B3AD-471B-A92E-8F2DA540C851}"/>
+    <workbookView xWindow="51900" yWindow="4100" windowWidth="25230" windowHeight="15720" activeTab="1" xr2:uid="{C0AECCA3-B3AD-471B-A92E-8F2DA540C851}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     Q4 guidance: 220.5-223.5</t>
       </text>
     </comment>
-    <comment ref="AB8" authorId="1" shapeId="0" xr:uid="{69F3413F-4B0C-41CB-BBC3-35C12386EE30}">
+    <comment ref="AF8" authorId="1" shapeId="0" xr:uid="{69F3413F-4B0C-41CB-BBC3-35C12386EE30}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -205,13 +205,25 @@
   </si>
   <si>
     <t>Bookings</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -223,12 +235,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -287,6 +293,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43793</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520558AF-A63F-2B83-7F51-E223A0F09921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13720379" y="30655"/>
+          <a:ext cx="0" cy="6043448"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,7 +676,7 @@
   <threadedComment ref="S8" dT="2025-03-03T17:48:47.10" personId="{3EBA10F0-3CFD-46F4-9F78-60DC26E601D8}" id="{81908061-17D7-458A-9230-C06AEE658B37}">
     <text>Q4 guidance: 220.5-223.5</text>
   </threadedComment>
-  <threadedComment ref="AB8" dT="2025-03-03T19:46:14.47" personId="{3EBA10F0-3CFD-46F4-9F78-60DC26E601D8}" id="{69F3413F-4B0C-41CB-BBC3-35C12386EE30}">
+  <threadedComment ref="AF8" dT="2025-03-03T19:46:14.47" personId="{3EBA10F0-3CFD-46F4-9F78-60DC26E601D8}" id="{69F3413F-4B0C-41CB-BBC3-35C12386EE30}">
     <text>Q4 guidance: 962.5-978.5</text>
   </threadedComment>
 </ThreadedComments>
@@ -625,19 +686,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773441CD-520E-4EB3-82AE-8D75A0F49201}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -648,17 +711,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>15097.5</v>
+        <v>9306</v>
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -670,7 +733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -681,13 +744,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>14219.855</v>
+        <v>8428.3549999999996</v>
       </c>
     </row>
   </sheetData>
@@ -697,28 +760,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A212AF94-474A-431F-8B5F-D30878AF2E4D}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB8" sqref="AB8"/>
+      <selection pane="bottomRight" activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
@@ -779,26 +842,57 @@
       <c r="V2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="X2">
+      <c r="W2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2">
         <v>2021</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <v>2022</v>
       </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
+      <c r="AD2">
+        <f>+AC2+1</f>
         <v>2023</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2024</v>
       </c>
-      <c r="AB2">
-        <f>+AA2+1</f>
+      <c r="AF2">
+        <f>+AE2+1</f>
         <v>2025</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG2">
+        <v>2026</v>
+      </c>
+      <c r="AH2">
+        <f>+AG2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AI2">
+        <f>+AH2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AJ2">
+        <f>+AI2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AK2">
+        <f>+AJ2+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -818,16 +912,28 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4">
+        <v>8.6</v>
+      </c>
       <c r="R3" s="4">
         <v>9.5</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="S3" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="T3" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="U3" s="4">
+        <v>11.5</v>
+      </c>
       <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
@@ -847,16 +953,28 @@
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="Q4" s="4">
+        <v>113.1</v>
+      </c>
       <c r="R4" s="4">
         <v>116.7</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="S4" s="4">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="T4" s="4">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="U4" s="4">
+        <v>135.30000000000001</v>
+      </c>
       <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -893,23 +1011,32 @@
       <c r="M5" s="2">
         <v>24</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>27</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>31</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>34</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>37</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S5" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="T5" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="U5" s="4">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
@@ -921,20 +1048,24 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="3">
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3">
         <v>294</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AC7" s="3">
         <v>429</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AD7" s="3">
         <v>622</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AE7" s="3">
         <v>870.6</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -971,38 +1102,51 @@
         <v>209.55</v>
       </c>
       <c r="S8" s="7">
-        <v>222</v>
+        <v>230.74299999999999</v>
       </c>
       <c r="T8" s="7">
-        <f>+P8*1.3</f>
-        <v>231.82509999999999</v>
+        <v>252.26499999999999</v>
       </c>
       <c r="U8" s="7">
-        <f>+Q8*1.3</f>
-        <v>250.37219999999999</v>
+        <v>271.71300000000002</v>
       </c>
       <c r="V8" s="7">
-        <f>+R8*1.3</f>
-        <v>272.41500000000002</v>
+        <v>332</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" ref="W8:Z8" si="0">+S8*1.3</f>
+        <v>299.96589999999998</v>
       </c>
       <c r="X8" s="7">
+        <f t="shared" si="0"/>
+        <v>327.94450000000001</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" si="0"/>
+        <v>353.22690000000006</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="0"/>
+        <v>431.6</v>
+      </c>
+      <c r="AB8" s="7">
         <v>250.77199999999999</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AC8" s="7">
         <v>369.495</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AD8" s="7">
         <v>531.10900000000004</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AE8" s="7">
         <v>748.024</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AF8" s="7">
         <f>SUM(S8:V8)</f>
-        <v>976.6123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1086.721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1038,20 +1182,29 @@
       <c r="R9" s="4">
         <v>58.924999999999997</v>
       </c>
-      <c r="X9" s="3">
+      <c r="S9" s="3">
+        <v>66.647000000000006</v>
+      </c>
+      <c r="T9" s="3">
+        <v>69.683999999999997</v>
+      </c>
+      <c r="U9" s="3">
+        <v>74.802000000000007</v>
+      </c>
+      <c r="AB9" s="3">
         <v>69.186000000000007</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AC9" s="3">
         <v>99.430999999999997</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AD9" s="3">
         <v>142.10499999999999</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AE9" s="3">
         <v>203.64500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,55 +1217,67 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
-        <f>+K8-K9</f>
+        <f t="shared" ref="K10:S10" si="1">+K8-K9</f>
         <v>84.168999999999997</v>
       </c>
       <c r="L10" s="4">
-        <f>+L8-L9</f>
+        <f t="shared" si="1"/>
         <v>93.051000000000002</v>
       </c>
       <c r="M10" s="4">
-        <f>+M8-M9</f>
+        <f t="shared" si="1"/>
         <v>101.37</v>
       </c>
       <c r="N10" s="4">
-        <f>+N8-N9</f>
+        <f t="shared" si="1"/>
         <v>110.41400000000002</v>
       </c>
       <c r="O10" s="4">
-        <f>+O8-O9</f>
+        <f t="shared" si="1"/>
         <v>122.36199999999999</v>
       </c>
       <c r="P10" s="4">
-        <f>+P8-P9</f>
+        <f t="shared" si="1"/>
         <v>130.97800000000001</v>
       </c>
       <c r="Q10" s="4">
-        <f>+Q8-Q9</f>
+        <f t="shared" si="1"/>
         <v>140.41399999999999</v>
       </c>
       <c r="R10" s="4">
-        <f>+R8-R9</f>
+        <f t="shared" si="1"/>
         <v>150.625</v>
       </c>
-      <c r="X10" s="3">
-        <f>+X8-X9</f>
+      <c r="S10" s="4">
+        <f t="shared" si="1"/>
+        <v>164.096</v>
+      </c>
+      <c r="T10" s="3">
+        <f>+T8-T9</f>
+        <v>182.58099999999999</v>
+      </c>
+      <c r="U10" s="3">
+        <f>+U8-U9</f>
+        <v>196.911</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>+AB8-AB9</f>
         <v>181.58599999999998</v>
       </c>
-      <c r="Y10" s="3">
-        <f>+Y8-Y9</f>
+      <c r="AC10" s="3">
+        <f>+AC8-AC9</f>
         <v>270.06400000000002</v>
       </c>
-      <c r="Z10" s="3">
-        <f>+Z8-Z9</f>
+      <c r="AD10" s="3">
+        <f>+AD8-AD9</f>
         <v>389.00400000000002</v>
       </c>
-      <c r="AA10" s="3">
-        <f>+AA8-AA9</f>
+      <c r="AE10" s="3">
+        <f>+AE8-AE9</f>
         <v>544.37900000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -1148,20 +1313,29 @@
       <c r="R11" s="4">
         <v>66.394999999999996</v>
       </c>
-      <c r="X11" s="3">
+      <c r="S11" s="3">
+        <v>70.39</v>
+      </c>
+      <c r="T11" s="3">
+        <v>73.67</v>
+      </c>
+      <c r="U11" s="3">
+        <v>82.706999999999994</v>
+      </c>
+      <c r="AB11" s="3">
         <v>103.833</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="AC11" s="3">
         <v>150.44399999999999</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AD11" s="3">
         <v>194.352</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AE11" s="3">
         <v>235.298</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1197,20 +1371,29 @@
       <c r="R12" s="4">
         <v>24.815000000000001</v>
       </c>
-      <c r="X12" s="3">
+      <c r="S12" s="3">
+        <v>26.661999999999999</v>
+      </c>
+      <c r="T12" s="3">
+        <v>29.562999999999999</v>
+      </c>
+      <c r="U12" s="3">
+        <v>35.081000000000003</v>
+      </c>
+      <c r="AB12" s="3">
         <v>59.17</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AC12" s="3">
         <v>66.966999999999999</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AD12" s="3">
         <v>75.787999999999997</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AE12" s="3">
         <v>90.494</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1246,20 +1429,29 @@
       <c r="R13" s="4">
         <v>45.533000000000001</v>
       </c>
-      <c r="X13" s="3">
+      <c r="S13" s="3">
+        <v>43.45</v>
+      </c>
+      <c r="T13" s="3">
+        <v>45.984999999999999</v>
+      </c>
+      <c r="U13" s="3">
+        <v>43.963999999999999</v>
+      </c>
+      <c r="AB13" s="3">
         <v>78.59</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="AC13" s="3">
         <v>117.848</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AD13" s="3">
         <v>132.12299999999999</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AE13" s="3">
         <v>155.99199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1272,55 +1464,71 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4">
-        <f>SUM(K11:K13)</f>
+        <f t="shared" ref="K14:R14" si="2">SUM(K11:K13)</f>
         <v>92.688000000000002</v>
       </c>
       <c r="L14" s="4">
-        <f>SUM(L11:L13)</f>
+        <f t="shared" si="2"/>
         <v>97.916000000000011</v>
       </c>
       <c r="M14" s="4">
-        <f>SUM(M11:M13)</f>
+        <f t="shared" si="2"/>
         <v>106.03999999999999</v>
       </c>
       <c r="N14" s="4">
-        <f>SUM(N11:N13)</f>
+        <f t="shared" si="2"/>
         <v>105.619</v>
       </c>
       <c r="O14" s="4">
-        <f>SUM(O11:O13)</f>
+        <f t="shared" si="2"/>
         <v>105.923</v>
       </c>
       <c r="P14" s="4">
-        <f>SUM(P11:P13)</f>
+        <f t="shared" si="2"/>
         <v>112.27799999999999</v>
       </c>
       <c r="Q14" s="4">
-        <f>SUM(Q11:Q13)</f>
+        <f t="shared" si="2"/>
         <v>126.84</v>
       </c>
       <c r="R14" s="4">
-        <f>SUM(R11:R13)</f>
+        <f t="shared" si="2"/>
         <v>136.74299999999999</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" ref="X14:Z14" si="0">SUM(X11:X13)</f>
+      <c r="S14" s="4">
+        <f t="shared" ref="S14" si="3">SUM(S11:S13)</f>
+        <v>140.50200000000001</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14" si="4">SUM(T11:T13)</f>
+        <v>149.21800000000002</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" ref="U14" si="5">SUM(U11:U13)</f>
+        <v>161.75200000000001</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" ref="V14" si="6">SUM(V11:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <f t="shared" ref="AB14:AD14" si="7">SUM(AB11:AB13)</f>
         <v>241.59299999999999</v>
       </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="0"/>
+      <c r="AC14" s="3">
+        <f t="shared" si="7"/>
         <v>335.25900000000001</v>
       </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="0"/>
+      <c r="AD14" s="3">
+        <f t="shared" si="7"/>
         <v>402.26299999999998</v>
       </c>
-      <c r="AA14" s="3">
-        <f>SUM(AA11:AA13)</f>
+      <c r="AE14" s="3">
+        <f>SUM(AE11:AE13)</f>
         <v>481.78399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1341,47 +1549,63 @@
         <v>7.2750000000000004</v>
       </c>
       <c r="M15" s="4">
-        <f>+M10-M14</f>
+        <f t="shared" ref="M15:R15" si="8">+M10-M14</f>
         <v>-4.6699999999999875</v>
       </c>
       <c r="N15" s="4">
-        <f>+N10-N14</f>
+        <f t="shared" si="8"/>
         <v>4.7950000000000159</v>
       </c>
       <c r="O15" s="4">
-        <f>+O10-O14</f>
+        <f t="shared" si="8"/>
         <v>16.438999999999993</v>
       </c>
       <c r="P15" s="4">
-        <f>+P10-P14</f>
+        <f t="shared" si="8"/>
         <v>18.700000000000017</v>
       </c>
       <c r="Q15" s="4">
-        <f>+Q10-Q14</f>
+        <f t="shared" si="8"/>
         <v>13.573999999999984</v>
       </c>
       <c r="R15" s="4">
-        <f>+R10-R14</f>
+        <f t="shared" si="8"/>
         <v>13.882000000000005</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" ref="X15:Z15" si="1">+X10-X14</f>
+      <c r="S15" s="4">
+        <f t="shared" ref="S15" si="9">+S10-S14</f>
+        <v>23.593999999999994</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" ref="T15" si="10">+T10-T14</f>
+        <v>33.362999999999971</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" ref="U15" si="11">+U10-U14</f>
+        <v>35.158999999999992</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15" si="12">+V10-V14</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" ref="AB15:AD15" si="13">+AB10-AB14</f>
         <v>-60.007000000000005</v>
       </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="1"/>
+      <c r="AC15" s="3">
+        <f t="shared" si="13"/>
         <v>-65.194999999999993</v>
       </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="1"/>
+      <c r="AD15" s="3">
+        <f t="shared" si="13"/>
         <v>-13.258999999999958</v>
       </c>
-      <c r="AA15" s="3">
-        <f>+AA10-AA14</f>
+      <c r="AE15" s="3">
+        <f>+AE10-AE14</f>
         <v>62.595000000000027</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1425,24 +1649,33 @@
         <f>-2.227+10.697</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="X16" s="3">
+      <c r="S16" s="3">
+        <v>10.414999999999999</v>
+      </c>
+      <c r="T16" s="3">
+        <v>11.427</v>
+      </c>
+      <c r="U16" s="3">
+        <v>11.792999999999999</v>
+      </c>
+      <c r="AB16" s="3">
         <f>0.019+0.03</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="AC16" s="3">
         <f>7.235+0.131-0.807</f>
         <v>6.5590000000000002</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AD16" s="3">
         <f>0.055+31.091</f>
         <v>31.146000000000001</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AE16" s="3">
         <f>42.697-2.986</f>
         <v>39.711000000000006</v>
       </c>
     </row>
-    <row r="17" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1455,55 +1688,67 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4">
-        <f>+K15+K16</f>
+        <f t="shared" ref="K17:U17" si="14">+K15+K16</f>
         <v>-2.6980000000000048</v>
       </c>
       <c r="L17" s="4">
-        <f>+L15+L16</f>
+        <f t="shared" si="14"/>
         <v>13.096</v>
       </c>
       <c r="M17" s="4">
-        <f>+M15+M16</f>
+        <f t="shared" si="14"/>
         <v>2.9320000000000128</v>
       </c>
       <c r="N17" s="4">
-        <f>+N15+N16</f>
+        <f t="shared" si="14"/>
         <v>15.133000000000017</v>
       </c>
       <c r="O17" s="4">
-        <f>+O15+O16</f>
+        <f t="shared" si="14"/>
         <v>25.850999999999992</v>
       </c>
       <c r="P17" s="4">
-        <f>+P15+P16</f>
+        <f t="shared" si="14"/>
         <v>28.714000000000016</v>
       </c>
       <c r="Q17" s="4">
-        <f>+Q15+Q16</f>
+        <f t="shared" si="14"/>
         <v>25.388999999999985</v>
       </c>
       <c r="R17" s="4">
-        <f>+R15+R16</f>
+        <f t="shared" si="14"/>
         <v>22.352000000000004</v>
       </c>
-      <c r="X17" s="3">
-        <f>+X15+X16</f>
+      <c r="S17" s="4">
+        <f t="shared" si="14"/>
+        <v>34.008999999999993</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="14"/>
+        <v>44.789999999999971</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="14"/>
+        <v>46.951999999999991</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>+AB15+AB16</f>
         <v>-59.958000000000006</v>
       </c>
-      <c r="Y17" s="3">
-        <f>+Y15+Y16</f>
+      <c r="AC17" s="3">
+        <f>+AC15+AC16</f>
         <v>-58.635999999999996</v>
       </c>
-      <c r="Z17" s="3">
-        <f>+Z15+Z16</f>
+      <c r="AD17" s="3">
+        <f>+AD15+AD16</f>
         <v>17.887000000000043</v>
       </c>
-      <c r="AA17" s="3">
-        <f t="shared" ref="AA17" si="2">+AA15+AA16</f>
+      <c r="AE17" s="3">
+        <f t="shared" ref="AE17" si="15">+AE15+AE16</f>
         <v>102.30600000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
@@ -1539,20 +1784,29 @@
       <c r="R18" s="4">
         <v>8.4450000000000003</v>
       </c>
-      <c r="X18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.669</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AC18" s="3">
         <v>0.93799999999999994</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AD18" s="3">
         <v>1.71</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AE18" s="3">
         <v>13.731999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1565,105 +1819,149 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4">
-        <f>+K17-K18</f>
+        <f t="shared" ref="K19:U19" si="16">+K17-K18</f>
         <v>-2.5820000000000047</v>
       </c>
       <c r="L19" s="4">
-        <f>+L17-L18</f>
+        <f t="shared" si="16"/>
         <v>13.212</v>
       </c>
       <c r="M19" s="4">
-        <f>+M17-M18</f>
+        <f t="shared" si="16"/>
         <v>2.8070000000000128</v>
       </c>
       <c r="N19" s="4">
-        <f>+N17-N18</f>
+        <f t="shared" si="16"/>
         <v>12.117000000000017</v>
       </c>
       <c r="O19" s="4">
-        <f>+O17-O18</f>
+        <f t="shared" si="16"/>
         <v>26.955999999999992</v>
       </c>
       <c r="P19" s="4">
-        <f>+P17-P18</f>
+        <f t="shared" si="16"/>
         <v>24.351000000000017</v>
       </c>
       <c r="Q19" s="4">
-        <f>+Q17-Q18</f>
+        <f t="shared" si="16"/>
         <v>23.359999999999985</v>
       </c>
       <c r="R19" s="4">
-        <f>+R17-R18</f>
+        <f t="shared" si="16"/>
         <v>13.907000000000004</v>
       </c>
-      <c r="X19" s="3">
-        <f>+X17-X18</f>
+      <c r="S19" s="4">
+        <f t="shared" si="16"/>
+        <v>34.008999999999993</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="16"/>
+        <v>43.120999999999974</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="16"/>
+        <v>46.951999999999991</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>+AB17-AB18</f>
         <v>-60.135000000000005</v>
       </c>
-      <c r="Y19" s="3">
-        <f>+Y17-Y18</f>
+      <c r="AC19" s="3">
+        <f>+AC17-AC18</f>
         <v>-59.573999999999998</v>
       </c>
-      <c r="Z19" s="3">
-        <f>+Z17-Z18</f>
+      <c r="AD19" s="3">
+        <f>+AD17-AD18</f>
         <v>16.177000000000042</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19" si="3">+AA17-AA18</f>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19" si="17">+AE17-AE18</f>
         <v>88.574000000000041</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" ref="O21:Q21" si="4">+O8/K8-1</f>
+        <f t="shared" ref="O21:Q21" si="18">+O8/K8-1</f>
         <v>0.44865598602813384</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.40593192945387457</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0.39942161250944608</v>
       </c>
       <c r="R21" s="6">
         <f>+R8/N8-1</f>
         <v>0.38788621386230426</v>
       </c>
-      <c r="Y21" s="8">
-        <f>+Y8/X8-1</f>
+      <c r="S21" s="6">
+        <f t="shared" ref="S21:V21" si="19">+S8/O8-1</f>
+        <v>0.37713439926471026</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="19"/>
+        <v>0.41462033231086703</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="19"/>
+        <v>0.41080719025514822</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="19"/>
+        <v>0.58434741111906452</v>
+      </c>
+      <c r="W21" s="6">
+        <f t="shared" ref="W21" si="20">+W8/S8-1</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="X21" s="6">
+        <f t="shared" ref="X21" si="21">+X8/T8-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Y21" s="6">
+        <f t="shared" ref="Y21" si="22">+Y8/U8-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" ref="Z21" si="23">+Z8/V8-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AC21" s="8">
+        <f>+AC8/AB8-1</f>
         <v>0.47343004801173971</v>
       </c>
-      <c r="Z21" s="8">
-        <f>+Z8/Y8-1</f>
+      <c r="AD21" s="8">
+        <f>+AD8/AC8-1</f>
         <v>0.43739157498748304</v>
       </c>
-      <c r="AA21" s="8">
-        <f>+AA8/Z8-1</f>
+      <c r="AE21" s="8">
+        <f>+AE8/AD8-1</f>
         <v>0.40841898743948968</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" ref="K22:N22" si="5">+K10/K8</f>
+        <f t="shared" ref="K22:N22" si="24">+K10/K8</f>
         <v>0.72772153102601567</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.7336150553063332</v>
       </c>
       <c r="M22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.73657210951578223</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
         <v>0.73129118786634439</v>
       </c>
       <c r="O22" s="6">
@@ -1682,57 +1980,90 @@
         <f>+R10/R8</f>
         <v>0.71880219518014787</v>
       </c>
-      <c r="X22" s="8">
-        <f>+X10/X8</f>
+      <c r="S22" s="6">
+        <f t="shared" ref="S22:V22" si="25">+S10/S8</f>
+        <v>0.71116350225142266</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="25"/>
+        <v>0.7237666739341565</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="25"/>
+        <v>0.72470216736041337</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="6">
+        <f t="shared" ref="W22:Z22" si="26">+W10/W8</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
+        <f>+AB10/AB8</f>
         <v>0.72410795463608368</v>
       </c>
-      <c r="Y22" s="8">
-        <f>+Y10/Y8</f>
+      <c r="AC22" s="8">
+        <f>+AC10/AC8</f>
         <v>0.73090028281844144</v>
       </c>
-      <c r="Z22" s="8">
-        <f>+Z10/Z8</f>
+      <c r="AD22" s="8">
+        <f>+AD10/AD8</f>
         <v>0.7324372209847696</v>
       </c>
-      <c r="AA22" s="8">
-        <f>+AA10/AA8</f>
+      <c r="AE22" s="8">
+        <f>+AE10/AE8</f>
         <v>0.72775606130284587</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="X24" s="3">
+      <c r="AB24" s="3">
         <v>9.17</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AC24" s="3">
         <v>53.655999999999999</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AD24" s="3">
         <v>153.614</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AE24" s="3">
         <v>285.51299999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="3">
+      <c r="AB25" s="3">
         <v>3.5859999999999999</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="AC25" s="3">
         <v>5.5620000000000003</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AD25" s="3">
         <v>3.1909999999999998</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AE25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>